--- a/Lab3/reportTemplate.xlsx
+++ b/Lab3/reportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\ProbTheory\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02DF370D-7B7E-4D05-8494-273E290E79E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C41C93-4EF8-4FA4-B8DB-E995D053D811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{948AD2A0-2509-4A35-BFB6-E9BA4237877F}"/>
   </bookViews>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEFA623-5B53-4B69-995F-A0FB61DA55FD}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
